--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/73_Tokat_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/73_Tokat_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA7EB6B9-C32C-4C55-8F71-8A5519CB0DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5FC3DB8-C364-4867-A738-1A6A9CC8FC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="654" xr2:uid="{7F111281-73AE-422B-A56A-6F13F2EFEF24}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="654" xr2:uid="{319FB207-5145-4592-9BA9-FBCF9CAAA335}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -953,13 +953,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{E88E4D4A-0B95-4653-A737-4A3E9F8056A1}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F9A1CD17-00E3-455C-8AFC-72DACB7B2995}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{476A5756-7E28-4B54-A9F7-6886B7C5BB52}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{B687BB30-1DC5-4A28-9864-5776A587BA87}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{0E626CD3-8D98-48FE-94D9-94E0409EAD37}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{09FEF666-A6E2-4DD7-A20C-7D07D01F8AB7}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{F37B2067-3D46-4F0B-A9C1-5A3CA1CD7BAB}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{9F5981A4-0AF4-4F9D-BEED-E83FEE273361}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{0F5E0888-96DD-41B3-A86E-808BFC8C4E15}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{9F3F3EE8-BB62-430B-BC29-B7F513478025}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{93406A4D-C612-448C-AB5A-7C963709995E}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{E42DAEF4-3957-4E16-8332-2066940C050F}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{B471415E-0C0A-447C-BA8C-44F02935A896}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{FDDA0D08-B155-42C6-9B6B-CDC1A5873F6C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1329,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB94D732-1DF3-44E4-8660-7F543853D0A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D347803-2D45-4450-AD04-123ED8210474}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2548,18 +2548,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BD6CFCB3-3DBB-44D6-BF2E-CC3E5EC2065D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6EB0A7AF-87EB-4C97-90F6-86C2983BDDFF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E0FAFD05-CB24-47F6-8FB4-FB8150B9B6DF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8168EF77-D5E7-481B-A967-50B4EA6AFCFC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6538B3F4-CFF1-4251-9DBE-06128728F949}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7F1B42BC-6A61-40FD-9D13-8F087F22808F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7D59FD94-7E25-486E-88BB-2AB5B0893BA4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{102E5265-EB20-42A5-96D9-C53FA23BA617}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{473E8462-C3EC-47DF-A831-8832F19F25F1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1E68FDCE-1068-4B9E-8096-5F47E40FC0D6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D71FE1F5-6AF4-4888-9D4C-6A3BBFC8CEE3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{72E91880-B02A-4538-B731-268FD20CD1F4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CD0CC26F-CFD0-44EC-94A3-B064B44C5378}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F2A91723-24E5-432E-AAF6-0A2547F82CF3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BFCF5A3E-A209-4DD9-B6B4-4A774936E0A4}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{34733E5D-DA79-4178-87DC-7128E1ED89F5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A21DFD7A-BAF0-4DAF-9704-3A4405957216}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{264FF44E-ACDF-4F1A-B022-D3B0BFD3B2D7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BCA8D06B-010E-483A-8BE5-15E68BF96634}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D3BC5493-FBE6-4D26-84DD-E4266AFC5271}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2EB69DE9-9916-4732-BA1D-67B16516B738}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E7790BA0-D1DA-4EB4-8F5E-D9E608C0E9EC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F172A3D6-958C-4FFA-A697-ABDDB35800B3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5F1C4DFA-0D64-4207-AAB2-C91AEBBE7FAE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2572,7 +2572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F21CA-A7FB-408F-A9D2-DEA61B2B9120}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87A3225-5B3F-4DE8-B94F-284D1A109C91}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3786,18 +3786,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D4F764F7-6FBD-459C-AD86-7D8A43EA7580}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4987AE1C-BCBB-405B-88B2-B34722A806F2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B6909BF7-FC52-483F-937E-08A2AEDBFFA0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{53AA0272-C949-439A-B38B-1350A22E2851}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{680EB2E0-06CE-4054-91CB-1555174002D2}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{58B5CECC-0CD1-4CBB-9D2F-11034BCD2064}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{84CB2D85-2BDE-4554-A6FD-9E7B371F4056}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0795ABFC-DC55-4699-B9B7-5F6FF701305E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EEF30AD2-4C33-4200-95AA-4164EFC1D3B0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6654D409-312E-4FCA-8656-B83B3F549D72}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D406FD39-B1E0-482C-BA46-BA38723973FF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{049DB9EB-2644-491D-A6B4-E3EF83BBE506}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{65365928-E756-4C69-B251-6E94F58D32FF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7BEEF69C-2AE6-421D-BA42-9B9E101F4390}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AD44BE7B-DE36-462D-9FBD-CA6652062351}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BDFFA728-0860-461D-97B5-F629AE8F4187}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D68F9E1C-CDFE-4311-BE5A-723C877E047A}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{88F8F64A-F17C-461C-86E9-1758326C2787}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FC25568F-1C7D-47C0-ADDF-C4FFD8A94A7D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D7E0936A-5512-4177-804A-4A54A86437D4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4ADF1D88-1FF1-46A1-BC5D-C6C3935363FE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{65ECE4E1-ADD9-4330-A902-0243C75A6A40}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4116EFC-4A64-4AE8-A4D5-580AF7C85A59}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DBB17651-D3F4-4209-8CEE-881EF2559DCB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3810,7 +3810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0E2C49-2862-479B-ADC7-9CC1D198CB32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E2B3E4-CBA3-41E2-9684-56FB06047651}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5024,18 +5024,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{83C053CA-0EC8-45DD-8E89-D301B5B19E4E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1BD1C017-A27B-405C-A908-547A6FE0F6D3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F7DFE166-FC4A-4C57-AF25-FCDD6E5C6CFA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9AFEFF73-FC4A-43C4-B692-784994AA94F6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E45A0D3E-5547-42A4-9599-E4855B38E528}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E2B039BC-B3AC-491B-961C-624446067764}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{18925533-F1DB-4040-8390-0C566A60AB98}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{74CD27AB-6253-42E4-AA1C-A8BC72672FAF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{56078191-6BCC-4D86-B0CA-A3EEE97CE688}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{78366244-DBBC-4586-B0D5-DE3E372CEEDC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FDE4BE58-9217-40B9-A555-78E96C77A85B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8AFB338A-5111-431E-A5EA-AED11E627E59}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B7FE4D33-EA81-48F6-AFA7-586A0E6D1BA3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F1034B0C-BC08-4E41-A731-95C0DE7BA94E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EC718E72-31D2-4650-AFC2-0ECDEB831463}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2154186B-C751-4987-BD2F-C0FC091DE7B9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A000DAA0-2CA8-4C05-A7C3-45D1602948AB}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8BA2671B-4ACE-4982-9FAD-F770F616C75E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EC658FCE-BA0B-40F0-BDED-06D3D2159FCF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{14F23B5F-6D32-4D73-8D40-B168F2C2CDD6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C03EC6B2-274A-4A0F-A3C3-01DDE15E8490}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{73FE3210-264B-4E83-A00B-1E22D2B64488}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4E370F9B-1B9B-465D-848B-1FCF6151B926}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{609DCC72-F91E-4398-A2CA-D58067B5E939}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5048,7 +5048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91F63B4-0116-4B46-B51F-40591264FFAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21E7EBE-244F-4AC0-A08F-528047CD3483}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6262,18 +6262,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{883C6778-EB70-4900-915F-89E406BDC4E7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1C626CEE-C0D6-4FC0-BD4A-0CFD123F6274}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C41C1F54-95BE-414D-BDB8-08CB4A54CC5C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{43B0B62D-7A26-4F74-B715-45F00F79FDFB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{36FCAB5C-4E10-41E1-897F-154845CD5761}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C729118C-BE34-402D-AA68-914B61BC87A4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F867C18B-D2F4-4F9C-8BEA-C296A2BDEA56}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A1EAD91-95EA-4345-8700-08CD3E5FEC2D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8125D80D-6213-470B-B967-4D69B8402AE1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{646F34E7-DCB2-43DB-B498-17572AFE1486}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{130664F6-D448-419A-875E-5C1D9A31810E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1C7D8DF8-5DA8-481A-B6FD-5CFE31C4E01F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C28052D4-1C0B-4B2C-8EF5-D2CED86C16AB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EA220176-34A5-4D0C-A90B-C623C84A205D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B3B7060D-0780-4D58-B99A-ED36ED656B24}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EEC8305B-2EF8-4E4B-B269-FE867CB32F90}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C9061129-EAA4-4736-A039-126CC716629C}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5F6A2941-AA63-418D-A010-04553C8DF3F7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{98472137-8ED5-49D9-88AE-58E0422408BF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9A85186B-9984-4BAD-A04D-8D9E15DE1E8C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F796592B-0465-4EEB-BF70-9330D049EA3B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{81758ECD-0CFD-4CA7-91E2-5AD0821A6707}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6B931310-1661-4894-9BF6-C4413D470153}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B86611BB-4775-4231-8AC4-C62E59934F4A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6286,7 +6286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B233B184-9F41-4C71-B2B6-F6DBAB4BF633}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC288AF5-8DE8-46B0-938C-EB85BDD7ACFF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7503,18 +7503,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{567BD423-BDFA-4F71-BD69-7C8E4C009DE8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A6173688-8E49-4853-9B79-9E964A796967}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4165C535-3FE3-4E31-AB9C-6B71793DE9D1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8EEA2BA4-6CCB-4FC1-89B1-BF9DB172F74E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0E2A8E00-E033-44A8-BBF1-F5CFDA693A05}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1693D74A-ACCF-4B98-BE46-3AC3C92F12E8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{02501B1E-45BE-41B3-9D20-4E761BCBF99F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3FFF1EF8-3028-4096-B547-98AFC6C469B6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{72DF3001-50F3-40CA-A89B-F488EB11B81B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4E1ED269-8E8F-4D22-B067-9B98CC28D496}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{61E58819-1623-4AB5-AA3F-C686D5353314}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1C02A8FF-8AEE-48C6-A972-D54F52AD08FF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C9DBE646-6E14-420A-956F-98F62E229E0C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4B79FCDE-5459-4E22-91C6-BC32B885E7D6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{791337D3-DD12-479A-9F1A-B9D78837DC46}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1F326DDD-75A7-4F46-B028-421EDFA60BE5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4AEBDADA-4444-4234-9A04-FA00B1838C86}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A5E3EE58-D591-49EC-B96B-987628073627}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4AE3156B-A36D-42F3-B9CB-701BCC65260D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CA7A1236-8185-4FAF-A0C9-4BEDB28EBF67}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{33A73CA5-EF0F-4B54-B50D-512F61459D58}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{55A4EFDD-8E27-4021-842C-C83A9ABE9827}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A8432D36-F8CA-4D87-8BE8-D1FE8321FD88}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{58C2883B-136D-4A99-BCFB-850CC055F515}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7527,7 +7527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80ADEEA1-56D1-4DF1-97C7-123DB1162C9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD82A31-49A7-4321-8987-76A8EE8FA134}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8744,18 +8744,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F970A05D-90BC-4200-8AA9-BA667EBEB87F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D76B23C6-648A-46C8-8042-7F93E8B0E24B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D81CE495-090D-429C-88EC-2FD46F8E7931}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BE547501-421B-4AE3-BAB0-75F1750AD16F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1C2190EB-8D4A-4731-A87C-CAD4313B07B2}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{38BF650B-3FEE-42B1-9071-D519322D1BCA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F19C309A-E3E4-4CEA-B147-9FFCA274A447}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{85FFD753-A132-47A9-8D92-018C470528F4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8AED692E-7C67-4E1B-B971-A78F22843857}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AA7DB6E0-19CB-423F-B12E-45BFF20D5B12}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1046D83B-AC34-4AB3-B1E9-FCD13E4B0AB7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{10DC8FB3-AC6C-4398-931F-80937FD273E8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ECA737D6-4E94-4861-B7DE-31B50B69D64D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{62CA00C5-278A-4026-922C-530383B9222D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C3E66C1C-5EF1-4557-8917-5C882777D981}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BB575550-27DA-4718-B915-FDC997581B67}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B4DCF1DC-406D-499D-BAF3-D9137CC85FF8}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{77B133BC-092A-4CFB-B880-4553F8C471B9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0E5C04D8-2C72-4D64-8C66-525DB2E2F9D2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{77C36BEE-0A8B-4675-9282-B98914FEF5F6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F850F233-C2F5-4D8F-8F97-88DF7E119CB6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C1D2766F-EE9B-4B33-A616-F540C0AC11EC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2AB48DB6-D2C2-43C4-A3D7-554FE7C4C414}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E2E90735-D8EF-4C77-9306-4AFAF0E44B81}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8768,7 +8768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9D0ACB-6D48-4C3D-B645-4DA5244BC314}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D705135-AE36-40E7-AC82-F83F41D511BC}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9985,18 +9985,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{07751D7B-7639-4532-B327-F6F437D24333}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CCDD554B-F5B0-45B3-B3B0-C810705C9A82}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{ABA812F8-103C-4185-B99F-F296E750BCF2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3E925ECD-E166-4C76-98A8-47B1CAFB491C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B91AFA73-40ED-4B86-AB59-F6B3B5F10CC6}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3D59E9F7-1A8E-4BEF-A703-72ED64A282FC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4186E654-A063-4424-993D-F77A7CEC2CDC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ECD7340B-BDCD-4225-807E-082DAA66D7FB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9B377453-1F73-4D86-94ED-FDFF9782FA0A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3DCACE06-2A88-46AA-9AF9-A02B8B458B96}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C3CA80B5-558F-42BB-8DC4-D0A4E86D8909}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0EB1D0D4-0FD0-41AC-AA43-44500C0B66C0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AEB86564-081F-4685-AE3D-18BE6E757E56}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FB0453A4-5472-4BF7-B51F-4E2B04F18666}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E9C87BCB-EF34-47EA-989C-22AA4414B117}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F464D4A3-AF64-4A3D-B10A-8108B386233B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DA8165F0-5805-4325-9000-8F38BCF13825}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B047D3A2-D568-4627-8ABB-918A1E845053}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C3D12989-36D5-4241-BD40-73C8B5CC77A0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{704E44F5-E8A9-4414-A032-7B669184A0C5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BFE183E3-CD06-4692-BDEE-7A73DF222BF1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{27BB87D8-7A1F-425E-8BF2-94D12C9F1CCD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0BA243BB-98B1-4886-B145-587664441F5B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BE6B141E-5A2E-4EC6-BC58-43CC7A17A084}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10009,7 +10009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF64346-9FAB-40BF-B570-8FED4C7DA834}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7545904-A68A-448C-87F8-FF72CB5CD391}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11226,18 +11226,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4AAF5973-5A88-42E9-983F-01EFC73F5AE4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B2F56188-B466-42CF-911A-658721D143C9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4DD338D9-0C17-43B3-B6A8-8369767348B9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{90EEE79A-2442-4586-BAF5-36A3F7B2CBD3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{047B99A3-EF33-4591-B83C-4B652B62560E}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{41827AB9-4CB5-4991-8BDE-D0EEAFCFA149}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{63E9C30D-681B-46B7-9AEF-4AB766D3A9E1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E754B9CB-A19B-4F9F-AB06-746EEE165FC7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C6458970-6A4E-461F-BC86-05A28C9ED475}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EDB0C40D-B0D2-41E0-8B33-B2BB1C17180C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{11ACC02F-3F02-469B-AF25-133E66579EAE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{827FC54D-F3AE-4E5A-826D-853ACDCEF81F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{339EE4C4-1C8B-42BB-8FDD-89AEFBB5EB1B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{50010047-4022-40B3-93B1-DAB7410BEC22}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EF956DAD-141A-42C5-AD2F-424999A132F8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C2909BF9-844A-4F59-A926-C455328B3CE8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3206996E-24DF-4740-ACB5-4E371F217262}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E81CB054-56E9-45FC-A58D-8CE6C6E12050}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2602AFF3-38C8-4270-9E88-A3CA123281F4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E1BC5E6-A6AD-4BD1-BA08-B032C4EC08B2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{11E743F5-5F1E-4B20-8AB9-CE231501ACC8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1F2DF580-85F0-42D2-9858-4BE79F06474C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{080447D2-4092-4BF7-BCB2-4D5B8D83BA2D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8F7E613F-0391-499B-86BE-8453FD7CC12E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11250,7 +11250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6B5FE4-60BD-4744-AA3C-554060BA94B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41031312-EEA2-4E61-9274-02DBB123502C}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -12468,18 +12468,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F8B05151-6858-4807-A7F2-FFF5BD7A6665}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{73EFAADF-A6A8-43F1-AFB9-A97E2E8A0EB8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9A7B00DB-6FF4-40F5-87B3-1DF27422CE39}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{921DB905-E9E2-49BE-999E-D42D116A9162}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4906CE7B-634D-44CD-BFB1-F895586FE31A}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FA9E0C3C-E840-4E0A-8088-26BEFA25202D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A805AC0B-DE3F-4968-A64D-527E51F6A753}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3E5651DB-99D1-492A-B988-0045E4B85088}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{91F0BDA6-9855-4D13-8AD3-E0AB3469332A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7EFB2208-27A6-42BA-ACBC-FB31F5916774}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B4840CE8-BF1A-4C2C-8EA1-A77D6B356FCD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{94F196A3-B20A-41F2-9895-FA5F76207900}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E5FF20A5-3DAE-49BE-A074-0635C0CBC043}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{003F8BFA-4C87-4FD1-A13A-667A9476B108}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{176F2C27-AB12-4392-80BD-162F8DD67466}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6FA54D97-BF07-43C0-A3E9-AAFD02A7A608}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{589EA90B-F2C6-4B49-A195-EA28D30FD4E5}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FDAFA74D-4BA5-4503-B9FF-25FC2B0E833A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3D1425D3-24E1-4318-BB77-B1A203B93D7C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A243EA23-4563-49F4-8DCC-DD098302C720}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9F744160-7A96-4451-BDEC-2C22942B308F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E6347564-575E-44A3-AF0F-6BEBBFB3FF22}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C1F37D99-9529-41AF-AA3F-F0888B22B9EB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2B0C2375-8D2E-41DC-A9A7-FE6B3863705F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12492,7 +12492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658D6696-AAE6-4D37-BF6B-ED761A591812}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A497266A-6A1B-4351-987D-09F1B824BCE2}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -13706,18 +13706,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{54AF4962-5232-4560-9373-0565FB936D05}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{10473E7B-3B64-434A-9672-B9B85C06A74B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{72BD62ED-7B06-49F3-A5EA-0F7BCBE75F1F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6E7048F9-A5F3-4AFA-BB1B-2BAE2125CE2A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{93B8982E-683B-4F35-B918-689E9EED3911}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7D395A3C-B556-4C99-9FF0-91A4C23FBE64}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7B26E826-4F9B-46CD-A73A-2DF78A0ED7C2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AD9429BF-8901-4FDA-9223-A6E397606AB8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9B90F277-7BBB-4EEB-9D7E-93C21575972E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B7BD42B4-B78E-4290-8FA5-7F92500831FD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C6ACFDEA-8152-48C5-9056-D2542C8A76AF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8ABEAB62-F3BB-407C-B8DD-B6D27115E252}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{58C00018-A026-45A8-8468-CC92AE19626F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{73F2BAB3-346E-473E-AFB3-3D096EA383C4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EFCFC123-F159-4882-BA83-07C02DDE0D96}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B91ABB34-0468-4392-9BD3-1EECCCD43EE3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D7192876-5CAB-4F67-851C-778A2315DCF8}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1B30EEF3-7C79-491A-AF37-D6AFC0992E26}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C77D5277-8087-4EDD-856C-E647ECAF2026}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{488DE1FA-A705-4F18-AEAB-0FE721B8BA2C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1BC58C5A-7F29-4A9C-8339-2D2AAD28BB52}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{988AD6A9-42A7-451D-9C01-BAA89303DAAB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4FE9FB4D-1E69-4EE4-8C21-5F863899F9E8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{43461BFF-4B47-4C78-8E4D-B8E4061A7D58}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13730,7 +13730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAB837C-3104-4740-87D6-535D4C9C5158}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672B784E-ECAE-43F5-A846-5741521595BF}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -14944,18 +14944,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{116DB769-AB74-45AC-9F3D-2E121FCFBD97}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7A79AF4D-7606-4C04-BF3C-6815C08580FB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E5389FF1-CD58-41E5-835E-07C8C2206DF8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9D23A694-E990-426C-87E4-4B55F8C5F9D0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E67828B2-C641-4871-8E1B-C7549D013F91}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0BDD3CA1-1AB1-4048-AB27-26092BDE58D8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{595182FF-BB41-4DA0-A173-239AB303C149}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B00347EC-06A9-4FA8-829A-E05966E5C625}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C221550D-D110-4127-ACA3-BA365F61DA39}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{39275861-2DFF-4061-8FD9-99D08261A76F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{846250DE-5366-4A4E-A105-F9735E0B96DE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C9D71D81-B633-4F76-90EC-86B0C0E4CE7E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{56970C35-5670-4135-9F4B-1E8C5F5D33E9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{55FD7593-2966-4546-A130-15F7641AC4F7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6D519CFA-248E-43E4-989D-169F07950F0D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{16E29F09-883F-4AE8-9DDE-439E57B8CFEE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{38EA0B5D-0121-4BE6-965B-E285597120EF}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C810C5A8-6FFF-4273-83B3-2732BF03A151}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{977A82A9-A508-46C3-80ED-614383F2F62A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{32299499-920C-4A88-8DA9-9F719512B60B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F7389B76-D387-4A38-AF0C-BB6D1135E47B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E324E77B-C160-490F-9356-DEA73045A1D9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F868A89C-765A-46CF-BE11-B015A45258D6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{814E94C5-E531-4B23-91C8-14CA54CAF3E2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14968,7 +14968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DE0C36-E146-44D4-B4AD-AA09F411244C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D303166-BD49-4730-A8BC-3A00E9FBF73C}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -16182,18 +16182,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6C43869B-54FE-4412-846E-E3882ABDC46F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{09F04961-F825-433B-B5E7-69B69AC4AC69}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{36CCF150-71DF-4D03-9F8D-92AFE010F8B7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{90F49D3E-C410-45AA-846C-FE671798F8F0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9AEEB8DB-6F0F-4F8C-B434-9ACCDE3A58F5}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F5910ADB-AF9F-409C-8AD0-1258624C437D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A4785DAF-4D6F-4C3B-AD7E-47EAF7E449DB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DEEE2B2C-ECBD-4E3D-977B-5AB28A1E42E5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{41F56898-7214-4369-8641-05331362CC65}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{26A1D4EF-4EB3-4DF0-9654-EC4107F1253A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C2A3A205-C798-4067-A864-D6FA36788C3B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C62106F6-6879-4B2F-981D-DF6DFF9396A1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{46F38E4E-49DF-4655-BF10-4DF19B7A141B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0869CBB5-831D-43E8-8494-2714BB67150F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CDABD845-52FA-4536-8A46-8E9D1088AEE6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{46B0B0A1-A5D4-4557-ADAF-457C89B89073}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AAFEA89F-6A0A-45B9-9E5C-83B613C17CBC}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C5971C40-828C-4E18-A286-B29AFB8AC4D3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6F86EA3B-8F47-48C8-B601-7AF106FE615F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FFA440D5-7E30-49A3-B197-3647DF3C818D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B3854F86-C8E4-4D1A-B2A7-1ED444FAB682}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E09E2B9D-9D3E-4240-B913-C9F5883EB29F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{36AFD678-E778-4CC1-AB7F-1027B0010F96}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2C08E5C6-6DA2-4AEE-9107-BAD08612678C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
